--- a/medicine/Sexualité et sexologie/Paškuwatti/Paškuwatti.xlsx
+++ b/medicine/Sexualité et sexologie/Paškuwatti/Paškuwatti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pa%C5%A1kuwatti</t>
+          <t>Paškuwatti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paškuwatti est une magicienne et une guérisseuse d'Arzawa. Un texte rituel hittite (CTH 406 ; XIVe siècle av. J.-C.) nous est parvenu d'elle dans les archives de Ḫattuša, qui est censé guérir un homme de son impuissance sexuelle ou de son homosexualité[1].
-L'impuissance masculine était en effet considérée à l'époque comme un comportement féminin. Le rituel impliquait le franchissement d'une porte qui devait induire le passage d'un état à un autre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paškuwatti est une magicienne et une guérisseuse d'Arzawa. Un texte rituel hittite (CTH 406 ; XIVe siècle av. J.-C.) nous est parvenu d'elle dans les archives de Ḫattuša, qui est censé guérir un homme de son impuissance sexuelle ou de son homosexualité.
+L'impuissance masculine était en effet considérée à l'époque comme un comportement féminin. Le rituel impliquait le franchissement d'une porte qui devait induire le passage d'un état à un autre.
 </t>
         </is>
       </c>
